--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1356,8 +1356,11 @@
       <c r="KN1" s="2" t="n">
         <v>10749</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10749</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10750</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2263,7 +2266,10 @@
       <c r="KN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3170,8 +3176,11 @@
       <c r="KN3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4077,8 +4086,11 @@
       <c r="KN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4984,7 +4996,10 @@
       <c r="KN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5891,8 +5906,11 @@
       <c r="KN6" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6798,8 +6816,11 @@
       <c r="KN7" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7705,8 +7726,11 @@
       <c r="KN8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>-81</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8612,8 +8636,11 @@
       <c r="KN9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -9519,8 +9546,11 @@
       <c r="KN10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10426,8 +10456,11 @@
       <c r="KN11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11333,8 +11366,11 @@
       <c r="KN12" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12240,8 +12276,11 @@
       <c r="KN13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13147,8 +13186,11 @@
       <c r="KN14" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14054,8 +14096,11 @@
       <c r="KN15" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -14961,8 +15006,11 @@
       <c r="KN16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -15868,8 +15916,11 @@
       <c r="KN17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -16775,8 +16826,11 @@
       <c r="KN18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -17682,8 +17736,11 @@
       <c r="KN19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -18589,8 +18646,11 @@
       <c r="KN20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19496,8 +19556,11 @@
       <c r="KN21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20403,8 +20466,11 @@
       <c r="KN22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -21310,8 +21376,11 @@
       <c r="KN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22217,8 +22286,11 @@
       <c r="KN24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23124,8 +23196,11 @@
       <c r="KN25" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24031,8 +24106,11 @@
       <c r="KN26" s="2" t="n">
         <v>22.86</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>22.86</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -24938,8 +25016,11 @@
       <c r="KN27" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>12.8</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -25845,8 +25926,11 @@
       <c r="KN28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -26752,8 +26836,11 @@
       <c r="KN29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -27659,8 +27746,11 @@
       <c r="KN30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -28566,8 +28656,11 @@
       <c r="KN31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -29473,8 +29566,11 @@
       <c r="KN32" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -30380,7 +30476,10 @@
       <c r="KN33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31287,8 +31386,11 @@
       <c r="KN34" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>41.1</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32194,7 +32296,10 @@
       <c r="KN35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KP35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -33101,8 +33206,11 @@
       <c r="KN36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -34008,8 +34116,11 @@
       <c r="KN37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -34915,8 +35026,11 @@
       <c r="KN38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -35822,8 +35936,11 @@
       <c r="KN39" s="2" t="n">
         <v>114.7</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>114.7</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -36729,7 +36846,10 @@
       <c r="KN40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37636,7 +37756,10 @@
       <c r="KN41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38543,7 +38666,10 @@
       <c r="KN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39450,7 +39576,10 @@
       <c r="KN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40357,8 +40486,11 @@
       <c r="KN44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -41264,8 +41396,11 @@
       <c r="KN45" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -42171,8 +42306,11 @@
       <c r="KN46" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -43078,8 +43216,11 @@
       <c r="KN47" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -43985,8 +44126,11 @@
       <c r="KN48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -44892,8 +45036,11 @@
       <c r="KN49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -45799,8 +45946,11 @@
       <c r="KN50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -46706,8 +46856,11 @@
       <c r="KN51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -47613,8 +47766,11 @@
       <c r="KN52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -48520,7 +48676,10 @@
       <c r="KN53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KP53" t="n">
         <v>49</v>
       </c>
     </row>
@@ -49427,8 +49586,11 @@
       <c r="KN54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -50334,8 +50496,11 @@
       <c r="KN55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -51241,8 +51406,11 @@
       <c r="KN56" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -52148,8 +52316,11 @@
       <c r="KN57" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -53055,8 +53226,11 @@
       <c r="KN58" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -53962,8 +54136,11 @@
       <c r="KN59" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>303</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -54869,8 +55046,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.75</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -55776,8 +55956,11 @@
       <c r="KN61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -56683,8 +56866,11 @@
       <c r="KN62" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -57590,8 +57776,11 @@
       <c r="KN63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -58497,8 +58686,11 @@
       <c r="KN64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -59404,8 +59596,11 @@
       <c r="KN65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -60311,8 +60506,11 @@
       <c r="KN66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -61218,8 +61416,11 @@
       <c r="KN67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -62125,8 +62326,11 @@
       <c r="KN68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -63032,8 +63236,11 @@
       <c r="KN69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -63939,8 +64146,11 @@
       <c r="KN70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -64846,8 +65056,11 @@
       <c r="KN71" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>60.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -65753,8 +65966,11 @@
       <c r="KN72" s="2" t="n">
         <v>21.64</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>21.64</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>19.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -66660,8 +66876,11 @@
       <c r="KN73" s="2" t="n">
         <v>12.62</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>12.62</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>11.97</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -67567,8 +67786,11 @@
       <c r="KN74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -68474,8 +68696,11 @@
       <c r="KN75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -69381,8 +69606,11 @@
       <c r="KN76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -70288,8 +70516,11 @@
       <c r="KN77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -71195,8 +71426,11 @@
       <c r="KN78" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>2.58</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -72102,8 +72336,11 @@
       <c r="KN79" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
         <v>4.43</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -73009,8 +73246,11 @@
       <c r="KN80" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>49.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -73916,8 +74156,11 @@
       <c r="KN81" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
         <v>22.6</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -74823,8 +75066,11 @@
       <c r="KN82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -75730,8 +75976,11 @@
       <c r="KN83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -76637,8 +76886,11 @@
       <c r="KN84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>28.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -77544,8 +77796,11 @@
       <c r="KN85" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>109.6</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>167.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -78451,8 +78706,11 @@
       <c r="KN86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -79358,8 +79616,11 @@
       <c r="KN87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -80265,7 +80526,10 @@
       <c r="KN88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -81172,8 +81436,11 @@
       <c r="KN89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP89" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -82079,8 +82346,11 @@
       <c r="KN90" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -82986,8 +83256,11 @@
       <c r="KN91" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -83893,8 +84166,11 @@
       <c r="KN92" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -84800,8 +85076,11 @@
       <c r="KN93" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>66.3</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -85707,8 +85986,11 @@
       <c r="KN94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -86614,8 +86896,11 @@
       <c r="KN95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -87521,8 +87806,11 @@
       <c r="KN96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -88428,8 +88716,11 @@
       <c r="KN97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -89335,8 +89626,11 @@
       <c r="KN98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -90242,8 +90536,11 @@
       <c r="KN99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -91149,8 +91446,11 @@
       <c r="KN100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -92056,8 +92356,11 @@
       <c r="KN101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -92963,8 +93266,11 @@
       <c r="KN102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1359,7 +1359,13 @@
       <c r="KO1" s="2" t="n">
         <v>10749</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
+        <v>10750</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10750</v>
+      </c>
+      <c r="KR1" t="n">
         <v>10750</v>
       </c>
     </row>
@@ -2269,7 +2275,13 @@
       <c r="KO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3179,7 +3191,13 @@
       <c r="KO3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KR3" t="n">
         <v>28</v>
       </c>
     </row>
@@ -4089,7 +4107,13 @@
       <c r="KO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,7 +5023,13 @@
       <c r="KO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5909,7 +5939,13 @@
       <c r="KO6" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KR6" t="n">
         <v>52</v>
       </c>
     </row>
@@ -6819,7 +6855,13 @@
       <c r="KO7" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KR7" t="n">
         <v>133</v>
       </c>
     </row>
@@ -7729,7 +7771,13 @@
       <c r="KO8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
+        <v>-81</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>-81</v>
+      </c>
+      <c r="KR8" t="n">
         <v>-81</v>
       </c>
     </row>
@@ -8639,7 +8687,13 @@
       <c r="KO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9549,7 +9603,13 @@
       <c r="KO10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10459,7 +10519,13 @@
       <c r="KO11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KR11" t="n">
         <v>166</v>
       </c>
     </row>
@@ -11369,7 +11435,13 @@
       <c r="KO12" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="KR12" t="n">
         <v>138</v>
       </c>
     </row>
@@ -12279,7 +12351,13 @@
       <c r="KO13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="KR13" t="n">
         <v>304</v>
       </c>
     </row>
@@ -13189,7 +13267,13 @@
       <c r="KO14" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="KR14" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -14099,7 +14183,13 @@
       <c r="KO15" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KR15" t="n">
         <v>62</v>
       </c>
     </row>
@@ -15009,7 +15099,13 @@
       <c r="KO16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KR16" t="n">
         <v>65</v>
       </c>
     </row>
@@ -15919,7 +16015,13 @@
       <c r="KO17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KR17" t="n">
         <v>24</v>
       </c>
     </row>
@@ -16829,7 +16931,13 @@
       <c r="KO18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -17739,7 +17847,13 @@
       <c r="KO19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18649,7 +18763,13 @@
       <c r="KO20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19559,7 +19679,13 @@
       <c r="KO21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -20469,7 +20595,13 @@
       <c r="KO22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -21379,7 +21511,13 @@
       <c r="KO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22289,7 +22427,13 @@
       <c r="KO24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR24" t="n">
         <v>12</v>
       </c>
     </row>
@@ -23199,7 +23343,13 @@
       <c r="KO25" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KR25" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -24109,7 +24259,13 @@
       <c r="KO26" s="2" t="n">
         <v>22.86</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR26" t="n">
         <v>38</v>
       </c>
     </row>
@@ -25019,7 +25175,13 @@
       <c r="KO27" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="KR27" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -25929,7 +26091,13 @@
       <c r="KO28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -26839,7 +27007,13 @@
       <c r="KO29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KR29" t="n">
         <v>54</v>
       </c>
     </row>
@@ -27749,7 +27923,13 @@
       <c r="KO30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR30" t="n">
         <v>45</v>
       </c>
     </row>
@@ -28659,7 +28839,13 @@
       <c r="KO31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KR31" t="n">
         <v>32</v>
       </c>
     </row>
@@ -29569,7 +29755,13 @@
       <c r="KO32" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="KR32" t="n">
         <v>2.67</v>
       </c>
     </row>
@@ -30479,7 +30671,13 @@
       <c r="KO33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31389,7 +31587,13 @@
       <c r="KO34" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="KR34" t="n">
         <v>34.4</v>
       </c>
     </row>
@@ -32299,7 +32503,13 @@
       <c r="KO35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KR35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -33209,7 +33419,13 @@
       <c r="KO36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="KR36" t="n">
         <v>187.6</v>
       </c>
     </row>
@@ -34119,7 +34335,13 @@
       <c r="KO37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="KR37" t="n">
         <v>86.3</v>
       </c>
     </row>
@@ -35029,7 +35251,13 @@
       <c r="KO38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="KR38" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -35939,7 +36167,13 @@
       <c r="KO39" s="2" t="n">
         <v>114.7</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="KR39" t="n">
         <v>116</v>
       </c>
     </row>
@@ -36849,7 +37083,13 @@
       <c r="KO40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37759,7 +37999,13 @@
       <c r="KO41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38669,7 +38915,13 @@
       <c r="KO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39579,7 +39831,13 @@
       <c r="KO43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40489,7 +40747,13 @@
       <c r="KO44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KR44" t="n">
         <v>110</v>
       </c>
     </row>
@@ -41399,7 +41663,13 @@
       <c r="KO45" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="KR45" t="n">
         <v>189</v>
       </c>
     </row>
@@ -42309,7 +42579,13 @@
       <c r="KO46" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="KR46" t="n">
         <v>232</v>
       </c>
     </row>
@@ -43219,7 +43495,13 @@
       <c r="KO47" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="KR47" t="n">
         <v>76.3</v>
       </c>
     </row>
@@ -44129,7 +44411,13 @@
       <c r="KO48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KR48" t="n">
         <v>54</v>
       </c>
     </row>
@@ -45039,7 +45327,13 @@
       <c r="KO49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -45949,7 +46243,13 @@
       <c r="KO50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46859,7 +47159,13 @@
       <c r="KO51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -47769,7 +48075,13 @@
       <c r="KO52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR52" t="n">
         <v>45</v>
       </c>
     </row>
@@ -48679,7 +48991,13 @@
       <c r="KO53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR53" t="n">
         <v>49</v>
       </c>
     </row>
@@ -49589,7 +49907,13 @@
       <c r="KO54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR54" t="n">
         <v>14</v>
       </c>
     </row>
@@ -50499,7 +50823,13 @@
       <c r="KO55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR55" t="n">
         <v>5</v>
       </c>
     </row>
@@ -51409,7 +51739,13 @@
       <c r="KO56" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="KR56" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -52319,7 +52655,13 @@
       <c r="KO57" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="KR57" t="n">
         <v>253</v>
       </c>
     </row>
@@ -53229,7 +53571,13 @@
       <c r="KO58" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="KR58" t="n">
         <v>142</v>
       </c>
     </row>
@@ -54139,7 +54487,13 @@
       <c r="KO59" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="KR59" t="n">
         <v>395</v>
       </c>
     </row>
@@ -55049,7 +55403,13 @@
       <c r="KO60" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="KR60" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -55959,7 +56319,13 @@
       <c r="KO61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="KR61" t="n">
         <v>124</v>
       </c>
     </row>
@@ -56869,7 +57235,13 @@
       <c r="KO62" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR62" t="n">
         <v>56</v>
       </c>
     </row>
@@ -57779,7 +58151,13 @@
       <c r="KO63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KR63" t="n">
         <v>44</v>
       </c>
     </row>
@@ -58689,7 +59067,13 @@
       <c r="KO64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -59599,7 +59983,13 @@
       <c r="KO65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR65" t="n">
         <v>18</v>
       </c>
     </row>
@@ -60509,7 +60899,13 @@
       <c r="KO66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KR66" t="n">
         <v>20</v>
       </c>
     </row>
@@ -61419,7 +61815,13 @@
       <c r="KO67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -62329,7 +62731,13 @@
       <c r="KO68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR68" t="n">
         <v>11</v>
       </c>
     </row>
@@ -63239,7 +63647,13 @@
       <c r="KO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -64149,7 +64563,13 @@
       <c r="KO70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR70" t="n">
         <v>33</v>
       </c>
     </row>
@@ -65059,7 +65479,13 @@
       <c r="KO71" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="KR71" t="n">
         <v>60.6</v>
       </c>
     </row>
@@ -65969,7 +66395,13 @@
       <c r="KO72" s="2" t="n">
         <v>21.64</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="KR72" t="n">
         <v>19.75</v>
       </c>
     </row>
@@ -66879,7 +67311,13 @@
       <c r="KO73" s="2" t="n">
         <v>12.62</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="KR73" t="n">
         <v>11.97</v>
       </c>
     </row>
@@ -67789,7 +68227,13 @@
       <c r="KO74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR74" t="n">
         <v>33</v>
       </c>
     </row>
@@ -68699,7 +69143,13 @@
       <c r="KO75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KR75" t="n">
         <v>54</v>
       </c>
     </row>
@@ -69609,7 +70059,13 @@
       <c r="KO76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KR76" t="n">
         <v>23</v>
       </c>
     </row>
@@ -70519,7 +70975,13 @@
       <c r="KO77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="KR77" t="n">
         <v>63</v>
       </c>
     </row>
@@ -71429,7 +71891,13 @@
       <c r="KO78" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="KR78" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -72339,7 +72807,13 @@
       <c r="KO79" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="KR79" t="n">
         <v>3.15</v>
       </c>
     </row>
@@ -73249,7 +73723,13 @@
       <c r="KO80" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="KR80" t="n">
         <v>49.2</v>
       </c>
     </row>
@@ -74159,7 +74639,13 @@
       <c r="KO81" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="KR81" t="n">
         <v>31.7</v>
       </c>
     </row>
@@ -75069,7 +75555,13 @@
       <c r="KO82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="KR82" t="n">
         <v>188.5</v>
       </c>
     </row>
@@ -75979,7 +76471,13 @@
       <c r="KO83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="KR83" t="n">
         <v>88.2</v>
       </c>
     </row>
@@ -76889,7 +77387,13 @@
       <c r="KO84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="KR84" t="n">
         <v>28.58</v>
       </c>
     </row>
@@ -77799,7 +78303,13 @@
       <c r="KO85" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="KR85" t="n">
         <v>167.6</v>
       </c>
     </row>
@@ -78709,7 +79219,13 @@
       <c r="KO86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -79619,7 +80135,13 @@
       <c r="KO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80529,7 +81051,13 @@
       <c r="KO88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -81439,7 +81967,13 @@
       <c r="KO89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR89" t="n">
         <v>13</v>
       </c>
     </row>
@@ -82349,7 +82883,13 @@
       <c r="KO90" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="KR90" t="n">
         <v>151</v>
       </c>
     </row>
@@ -83259,7 +83799,13 @@
       <c r="KO91" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="KR91" t="n">
         <v>253</v>
       </c>
     </row>
@@ -84169,7 +84715,13 @@
       <c r="KO92" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KR92" t="n">
         <v>296</v>
       </c>
     </row>
@@ -85079,7 +85631,13 @@
       <c r="KO93" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="KR93" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -85989,7 +86547,13 @@
       <c r="KO94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KR94" t="n">
         <v>54</v>
       </c>
     </row>
@@ -86899,7 +87463,13 @@
       <c r="KO95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR95" t="n">
         <v>6</v>
       </c>
     </row>
@@ -87809,7 +88379,13 @@
       <c r="KO96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR96" t="n">
         <v>17</v>
       </c>
     </row>
@@ -88719,7 +89295,13 @@
       <c r="KO97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR97" t="n">
         <v>33</v>
       </c>
     </row>
@@ -89629,7 +90211,13 @@
       <c r="KO98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KR98" t="n">
         <v>23</v>
       </c>
     </row>
@@ -90539,7 +91127,13 @@
       <c r="KO99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KR99" t="n">
         <v>43</v>
       </c>
     </row>
@@ -91449,7 +92043,13 @@
       <c r="KO100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -92359,7 +92959,13 @@
       <c r="KO101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -93269,7 +93875,13 @@
       <c r="KO102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KR102" t="n">
         <v>70</v>
       </c>
     </row>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1365,8 +1365,11 @@
       <c r="KQ1" s="2" t="n">
         <v>10750</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
         <v>10750</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10756</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2281,8 +2284,11 @@
       <c r="KQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -3197,8 +3203,11 @@
       <c r="KQ3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4113,7 +4122,10 @@
       <c r="KQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,8 +5041,11 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5945,8 +5960,11 @@
       <c r="KQ6" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6861,8 +6879,11 @@
       <c r="KQ7" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7777,8 +7798,11 @@
       <c r="KQ8" s="2" t="n">
         <v>-81</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
         <v>-81</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8693,8 +8717,11 @@
       <c r="KQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -9609,8 +9636,11 @@
       <c r="KQ10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10525,8 +10555,11 @@
       <c r="KQ11" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11441,8 +11474,11 @@
       <c r="KQ12" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12357,8 +12393,11 @@
       <c r="KQ13" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
         <v>304</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>417</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13273,8 +13312,11 @@
       <c r="KQ14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14189,8 +14231,11 @@
       <c r="KQ15" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15105,8 +15150,11 @@
       <c r="KQ16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16021,8 +16069,11 @@
       <c r="KQ17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -16937,8 +16988,11 @@
       <c r="KQ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -17853,8 +17907,11 @@
       <c r="KQ19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -18769,8 +18826,11 @@
       <c r="KQ20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19685,8 +19745,11 @@
       <c r="KQ21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20601,8 +20664,11 @@
       <c r="KQ22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -21517,8 +21583,11 @@
       <c r="KQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22433,8 +22502,11 @@
       <c r="KQ24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23349,8 +23421,11 @@
       <c r="KQ25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24265,8 +24340,11 @@
       <c r="KQ26" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>26.06</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25181,8 +25259,11 @@
       <c r="KQ27" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>13.9</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26097,8 +26178,11 @@
       <c r="KQ28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27013,8 +27097,11 @@
       <c r="KQ29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -27929,8 +28016,11 @@
       <c r="KQ30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -28845,8 +28935,11 @@
       <c r="KQ31" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -29761,8 +29854,11 @@
       <c r="KQ32" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -30677,7 +30773,10 @@
       <c r="KQ33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31593,8 +31692,11 @@
       <c r="KQ34" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32509,7 +32611,10 @@
       <c r="KQ35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KS35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -33425,8 +33530,11 @@
       <c r="KQ36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -34341,8 +34449,11 @@
       <c r="KQ37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -35257,8 +35368,11 @@
       <c r="KQ38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -36173,8 +36287,11 @@
       <c r="KQ39" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>106.6</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -37089,8 +37206,11 @@
       <c r="KQ40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38005,8 +38125,11 @@
       <c r="KQ41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -38921,8 +39044,11 @@
       <c r="KQ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -39837,7 +39963,10 @@
       <c r="KQ43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40753,8 +40882,11 @@
       <c r="KQ44" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -41669,8 +41801,11 @@
       <c r="KQ45" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -42585,8 +42720,11 @@
       <c r="KQ46" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -43501,8 +43639,11 @@
       <c r="KQ47" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -44417,8 +44558,11 @@
       <c r="KQ48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -45333,8 +45477,11 @@
       <c r="KQ49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -46249,8 +46396,11 @@
       <c r="KQ50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -47165,8 +47315,11 @@
       <c r="KQ51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -48081,8 +48234,11 @@
       <c r="KQ52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -48997,8 +49153,11 @@
       <c r="KQ53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -49913,8 +50072,11 @@
       <c r="KQ54" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -50829,8 +50991,11 @@
       <c r="KQ55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -51745,7 +51910,10 @@
       <c r="KQ56" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="KS56" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -52661,8 +52829,11 @@
       <c r="KQ57" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -53577,8 +53748,11 @@
       <c r="KQ58" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -54493,8 +54667,11 @@
       <c r="KQ59" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
         <v>395</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -55409,8 +55586,11 @@
       <c r="KQ60" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -56325,8 +56505,11 @@
       <c r="KQ61" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -57241,8 +57424,11 @@
       <c r="KQ62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -58157,8 +58343,11 @@
       <c r="KQ63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -59073,8 +59262,11 @@
       <c r="KQ64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -59989,8 +60181,11 @@
       <c r="KQ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -60905,8 +61100,11 @@
       <c r="KQ66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -61821,8 +62019,11 @@
       <c r="KQ67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -62737,8 +62938,11 @@
       <c r="KQ68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -63653,7 +63857,10 @@
       <c r="KQ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -64569,8 +64776,11 @@
       <c r="KQ70" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -65485,8 +65695,11 @@
       <c r="KQ71" s="2" t="n">
         <v>60.6</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
         <v>60.6</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -66401,8 +66614,11 @@
       <c r="KQ72" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
         <v>19.75</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>40.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -67317,8 +67533,11 @@
       <c r="KQ73" s="2" t="n">
         <v>11.97</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
         <v>11.97</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>22.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -68233,8 +68452,11 @@
       <c r="KQ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -69149,8 +69371,11 @@
       <c r="KQ75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -70065,8 +70290,11 @@
       <c r="KQ76" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -70981,8 +71209,11 @@
       <c r="KQ77" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -71897,8 +72128,11 @@
       <c r="KQ78" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -72813,8 +73047,11 @@
       <c r="KQ79" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
         <v>3.15</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>4.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -73729,8 +73966,11 @@
       <c r="KQ80" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
         <v>49.2</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>31.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -74645,8 +74885,11 @@
       <c r="KQ81" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -75561,8 +75804,11 @@
       <c r="KQ82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>189.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -76477,8 +76723,11 @@
       <c r="KQ83" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -77393,8 +77642,11 @@
       <c r="KQ84" s="2" t="n">
         <v>28.58</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
         <v>28.58</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -78309,8 +78561,11 @@
       <c r="KQ85" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
         <v>167.6</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -79225,8 +79480,11 @@
       <c r="KQ86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -80141,8 +80399,11 @@
       <c r="KQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -81057,8 +81318,11 @@
       <c r="KQ88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -81973,8 +82237,11 @@
       <c r="KQ89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -82889,8 +83156,11 @@
       <c r="KQ90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -83805,8 +84075,11 @@
       <c r="KQ91" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -84721,8 +84994,11 @@
       <c r="KQ92" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -85637,8 +85913,11 @@
       <c r="KQ93" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>60.4</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -86553,8 +86832,11 @@
       <c r="KQ94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -87469,8 +87751,11 @@
       <c r="KQ95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -88385,8 +88670,11 @@
       <c r="KQ96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -89301,8 +89589,11 @@
       <c r="KQ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -90217,8 +90508,11 @@
       <c r="KQ98" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -91133,8 +91427,11 @@
       <c r="KQ99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -92049,8 +92346,11 @@
       <c r="KQ100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -92965,8 +93265,11 @@
       <c r="KQ101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -93881,8 +94184,11 @@
       <c r="KQ102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1368,8 +1368,11 @@
       <c r="KR1" s="2" t="n">
         <v>10750</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10756</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10766</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2287,7 +2290,10 @@
       <c r="KR2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3206,8 +3212,11 @@
       <c r="KR3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4125,8 +4134,11 @@
       <c r="KR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5044,8 +5056,11 @@
       <c r="KR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5963,8 +5978,11 @@
       <c r="KR6" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6882,8 +6900,11 @@
       <c r="KR7" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7801,8 +7822,11 @@
       <c r="KR8" s="2" t="n">
         <v>-81</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8720,7 +8744,10 @@
       <c r="KR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9639,8 +9666,11 @@
       <c r="KR10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10558,8 +10588,11 @@
       <c r="KR11" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11477,8 +11510,11 @@
       <c r="KR12" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12396,8 +12432,11 @@
       <c r="KR13" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>417</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13315,8 +13354,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.64</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14234,8 +14276,11 @@
       <c r="KR15" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15153,8 +15198,11 @@
       <c r="KR16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16072,7 +16120,10 @@
       <c r="KR17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KT17" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16991,8 +17042,11 @@
       <c r="KR18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -17910,8 +17964,11 @@
       <c r="KR19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -18829,8 +18886,11 @@
       <c r="KR20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19748,8 +19808,11 @@
       <c r="KR21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20667,8 +20730,11 @@
       <c r="KR22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -21586,8 +21652,11 @@
       <c r="KR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22505,8 +22574,11 @@
       <c r="KR24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23424,8 +23496,11 @@
       <c r="KR25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24343,8 +24418,11 @@
       <c r="KR26" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>26.06</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>21.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25262,8 +25340,11 @@
       <c r="KR27" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>13.9</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>11.27</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26181,8 +26262,11 @@
       <c r="KR28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27100,8 +27184,11 @@
       <c r="KR29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28019,8 +28106,11 @@
       <c r="KR30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -28938,8 +29028,11 @@
       <c r="KR31" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -29857,8 +29950,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.13</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -30776,8 +30872,11 @@
       <c r="KR33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -31695,8 +31794,11 @@
       <c r="KR34" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>42.2</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32614,8 +32716,11 @@
       <c r="KR35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -33533,8 +33638,11 @@
       <c r="KR36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -34452,8 +34560,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -35371,8 +35482,11 @@
       <c r="KR38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -36290,8 +36404,11 @@
       <c r="KR39" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>106.6</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -37209,8 +37326,11 @@
       <c r="KR40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38128,7 +38248,10 @@
       <c r="KR41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39047,7 +39170,10 @@
       <c r="KR42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39966,8 +40092,11 @@
       <c r="KR43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -40885,8 +41014,11 @@
       <c r="KR44" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -41804,8 +41936,11 @@
       <c r="KR45" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -42723,8 +42858,11 @@
       <c r="KR46" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -43642,8 +43780,11 @@
       <c r="KR47" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -44561,8 +44702,11 @@
       <c r="KR48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -45480,8 +45624,11 @@
       <c r="KR49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -46399,8 +46546,11 @@
       <c r="KR50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -47318,8 +47468,11 @@
       <c r="KR51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -48237,8 +48390,11 @@
       <c r="KR52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -49156,8 +49312,11 @@
       <c r="KR53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -50075,8 +50234,11 @@
       <c r="KR54" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -50994,8 +51156,11 @@
       <c r="KR55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -51913,8 +52078,11 @@
       <c r="KR56" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -52832,8 +53000,11 @@
       <c r="KR57" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -53751,8 +53922,11 @@
       <c r="KR58" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -54670,8 +54844,11 @@
       <c r="KR59" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>366</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -55589,8 +55766,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -56508,8 +56688,11 @@
       <c r="KR61" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -57427,8 +57610,11 @@
       <c r="KR62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -58346,8 +58532,11 @@
       <c r="KR63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -59265,8 +59454,11 @@
       <c r="KR64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -60184,8 +60376,11 @@
       <c r="KR65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -61103,8 +61298,11 @@
       <c r="KR66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -62022,8 +62220,11 @@
       <c r="KR67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -62941,8 +63142,11 @@
       <c r="KR68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -63860,8 +64064,11 @@
       <c r="KR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -64779,8 +64986,11 @@
       <c r="KR70" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -65698,8 +65908,11 @@
       <c r="KR71" s="2" t="n">
         <v>60.6</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -66617,8 +66830,11 @@
       <c r="KR72" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>40.67</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -67536,8 +67752,11 @@
       <c r="KR73" s="2" t="n">
         <v>11.97</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>22.88</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>20.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -68455,8 +68674,11 @@
       <c r="KR74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -69374,8 +69596,11 @@
       <c r="KR75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -70293,8 +70518,11 @@
       <c r="KR76" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -71212,8 +71440,11 @@
       <c r="KR77" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -72131,8 +72362,11 @@
       <c r="KR78" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>2.75</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -73050,8 +73284,11 @@
       <c r="KR79" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>4.89</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -73969,8 +74206,11 @@
       <c r="KR80" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>31.8</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -74888,8 +75128,11 @@
       <c r="KR81" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>20.5</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -75807,8 +76050,11 @@
       <c r="KR82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>189.7</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -76726,8 +76972,11 @@
       <c r="KR83" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -77645,8 +77894,11 @@
       <c r="KR84" s="2" t="n">
         <v>28.58</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -78564,8 +78816,11 @@
       <c r="KR85" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -79483,8 +79738,11 @@
       <c r="KR86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -80402,8 +80660,11 @@
       <c r="KR87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -81321,8 +81582,11 @@
       <c r="KR88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -82240,8 +82504,11 @@
       <c r="KR89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -83159,8 +83426,11 @@
       <c r="KR90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -84078,8 +84348,11 @@
       <c r="KR91" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -84997,8 +85270,11 @@
       <c r="KR92" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -85916,8 +86192,11 @@
       <c r="KR93" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>60.4</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -86835,8 +87114,11 @@
       <c r="KR94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -87754,8 +88036,11 @@
       <c r="KR95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -88673,8 +88958,11 @@
       <c r="KR96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -89592,8 +89880,11 @@
       <c r="KR97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -90511,8 +90802,11 @@
       <c r="KR98" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -91430,8 +91724,11 @@
       <c r="KR99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -92349,8 +92646,11 @@
       <c r="KR100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -93268,8 +93568,11 @@
       <c r="KR101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -94187,8 +94490,11 @@
       <c r="KR102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1371,8 +1371,11 @@
       <c r="KS1" s="2" t="n">
         <v>10756</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="2" t="n">
         <v>10766</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10776</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2293,7 +2296,10 @@
       <c r="KS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3215,8 +3221,11 @@
       <c r="KS3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4137,8 +4146,11 @@
       <c r="KS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5059,7 +5071,10 @@
       <c r="KS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5981,8 +5996,11 @@
       <c r="KS6" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6903,8 +6921,11 @@
       <c r="KS7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7825,8 +7846,11 @@
       <c r="KS8" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8747,8 +8771,11 @@
       <c r="KS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -9669,8 +9696,11 @@
       <c r="KS10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10591,8 +10621,11 @@
       <c r="KS11" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11513,8 +11546,11 @@
       <c r="KS12" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12435,8 +12471,11 @@
       <c r="KS13" s="2" t="n">
         <v>417</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="2" t="n">
         <v>372</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13357,8 +13396,11 @@
       <c r="KS14" s="2" t="n">
         <v>1.64</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14279,8 +14321,11 @@
       <c r="KS15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15201,8 +15246,11 @@
       <c r="KS16" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16123,7 +16171,10 @@
       <c r="KS17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KU17" t="n">
         <v>22</v>
       </c>
     </row>
@@ -17045,8 +17096,11 @@
       <c r="KS18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -17967,8 +18021,11 @@
       <c r="KS19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -18889,8 +18946,11 @@
       <c r="KS20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19811,8 +19871,11 @@
       <c r="KS21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20733,8 +20796,11 @@
       <c r="KS22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -21655,8 +21721,11 @@
       <c r="KS23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22577,8 +22646,11 @@
       <c r="KS24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23499,8 +23571,11 @@
       <c r="KS25" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="2" t="n">
         <v>51.5</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24421,8 +24496,11 @@
       <c r="KS26" s="2" t="n">
         <v>26.06</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="2" t="n">
         <v>21.88</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>27.08</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25343,8 +25421,11 @@
       <c r="KS27" s="2" t="n">
         <v>13.9</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="2" t="n">
         <v>11.27</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>13.54</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26265,8 +26346,11 @@
       <c r="KS28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27187,8 +27271,11 @@
       <c r="KS29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28109,7 +28196,10 @@
       <c r="KS30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -29031,8 +29121,11 @@
       <c r="KS31" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -29953,8 +30046,11 @@
       <c r="KS32" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -30875,8 +30971,11 @@
       <c r="KS33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="2" t="n">
         <v>3.41</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -31797,8 +31896,11 @@
       <c r="KS34" s="2" t="n">
         <v>42.2</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32719,8 +32821,11 @@
       <c r="KS35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="2" t="n">
         <v>29.3</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -33641,8 +33746,11 @@
       <c r="KS36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -34563,8 +34671,11 @@
       <c r="KS37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -35485,8 +35596,11 @@
       <c r="KS38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -36407,8 +36521,11 @@
       <c r="KS39" s="2" t="n">
         <v>106.6</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="2" t="n">
         <v>93.3</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>107.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -37329,8 +37446,11 @@
       <c r="KS40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38251,7 +38371,10 @@
       <c r="KS41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39173,7 +39296,10 @@
       <c r="KS42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40095,8 +40221,11 @@
       <c r="KS43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -41017,8 +41146,11 @@
       <c r="KS44" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -41939,8 +42071,11 @@
       <c r="KS45" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -42861,8 +42996,11 @@
       <c r="KS46" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="2" t="n">
         <v>282</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -43783,8 +43921,11 @@
       <c r="KS47" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="2" t="n">
         <v>75.8</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -44705,8 +44846,11 @@
       <c r="KS48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -45627,8 +45771,11 @@
       <c r="KS49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -46549,8 +46696,11 @@
       <c r="KS50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -47471,8 +47621,11 @@
       <c r="KS51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -48393,7 +48546,10 @@
       <c r="KS52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -49315,8 +49471,11 @@
       <c r="KS53" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -50237,8 +50396,11 @@
       <c r="KS54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -51159,8 +51321,11 @@
       <c r="KS55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -52081,8 +52246,11 @@
       <c r="KS56" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="2" t="n">
         <v>82.40000000000001</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -53003,8 +53171,11 @@
       <c r="KS57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -53925,8 +54096,11 @@
       <c r="KS58" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -54847,8 +55021,11 @@
       <c r="KS59" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -55769,8 +55946,11 @@
       <c r="KS60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -56691,8 +56871,11 @@
       <c r="KS61" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -57613,8 +57796,11 @@
       <c r="KS62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -58535,8 +58721,11 @@
       <c r="KS63" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -59457,8 +59646,11 @@
       <c r="KS64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -60379,8 +60571,11 @@
       <c r="KS65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -61301,8 +61496,11 @@
       <c r="KS66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -62223,8 +62421,11 @@
       <c r="KS67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -63145,8 +63346,11 @@
       <c r="KS68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -64067,8 +64271,11 @@
       <c r="KS69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -64989,8 +65196,11 @@
       <c r="KS70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -65911,8 +66121,11 @@
       <c r="KS71" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -66833,8 +67046,11 @@
       <c r="KS72" s="2" t="n">
         <v>40.67</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>17.29</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -67755,8 +67971,11 @@
       <c r="KS73" s="2" t="n">
         <v>22.88</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="2" t="n">
         <v>20.59</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -68677,8 +68896,11 @@
       <c r="KS74" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -69599,8 +69821,11 @@
       <c r="KS75" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -70521,8 +70746,11 @@
       <c r="KS76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -71443,8 +71671,11 @@
       <c r="KS77" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -72365,8 +72596,11 @@
       <c r="KS78" s="2" t="n">
         <v>2.75</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="2" t="n">
         <v>2.47</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -73287,8 +73521,11 @@
       <c r="KS79" s="2" t="n">
         <v>4.89</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="2" t="n">
         <v>10.5</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -74209,8 +74446,11 @@
       <c r="KS80" s="2" t="n">
         <v>31.8</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="2" t="n">
         <v>40.5</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -75131,8 +75371,11 @@
       <c r="KS81" s="2" t="n">
         <v>20.5</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="2" t="n">
         <v>9.5</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -76053,8 +76296,11 @@
       <c r="KS82" s="2" t="n">
         <v>189.7</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -76975,8 +77221,11 @@
       <c r="KS83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -77897,8 +78146,11 @@
       <c r="KS84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="2" t="n">
         <v>24.24</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -78819,8 +79071,11 @@
       <c r="KS85" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>112.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -79741,8 +79996,11 @@
       <c r="KS86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -80663,8 +80921,11 @@
       <c r="KS87" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -81585,8 +81846,11 @@
       <c r="KS88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -82507,8 +82771,11 @@
       <c r="KS89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -83429,8 +83696,11 @@
       <c r="KS90" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -84351,7 +84621,10 @@
       <c r="KS91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="KU91" t="n">
         <v>220</v>
       </c>
     </row>
@@ -85273,8 +85546,11 @@
       <c r="KS92" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -86195,8 +86471,11 @@
       <c r="KS93" s="2" t="n">
         <v>60.4</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -87117,8 +87396,11 @@
       <c r="KS94" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -88039,8 +88321,11 @@
       <c r="KS95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -88961,8 +89246,11 @@
       <c r="KS96" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -89883,8 +90171,11 @@
       <c r="KS97" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -90805,8 +91096,11 @@
       <c r="KS98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -91727,8 +92021,11 @@
       <c r="KS99" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -92649,8 +92946,11 @@
       <c r="KS100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -93571,8 +93871,11 @@
       <c r="KS101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -94493,8 +94796,11 @@
       <c r="KS102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KU102" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1374,8 +1374,11 @@
       <c r="KT1" s="2" t="n">
         <v>10766</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10776</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10783</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2299,7 +2302,10 @@
       <c r="KT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3224,8 +3230,11 @@
       <c r="KT3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4149,8 +4158,11 @@
       <c r="KT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5074,8 +5086,11 @@
       <c r="KT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5999,8 +6014,11 @@
       <c r="KT6" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6924,8 +6942,11 @@
       <c r="KT7" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7849,8 +7870,11 @@
       <c r="KT8" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>-50</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8774,7 +8798,10 @@
       <c r="KT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9699,8 +9726,11 @@
       <c r="KT10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10624,8 +10654,11 @@
       <c r="KT11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11549,8 +11582,11 @@
       <c r="KT12" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12474,8 +12510,11 @@
       <c r="KT13" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>325</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13399,8 +13438,11 @@
       <c r="KT14" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14324,8 +14366,11 @@
       <c r="KT15" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15249,8 +15294,11 @@
       <c r="KT16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16174,8 +16222,11 @@
       <c r="KT17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17099,8 +17150,11 @@
       <c r="KT18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18024,8 +18078,11 @@
       <c r="KT19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -18949,8 +19006,11 @@
       <c r="KT20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19874,8 +19934,11 @@
       <c r="KT21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20799,8 +20862,11 @@
       <c r="KT22" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -21724,8 +21790,11 @@
       <c r="KT23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22649,8 +22718,11 @@
       <c r="KT24" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23574,8 +23646,11 @@
       <c r="KT25" s="2" t="n">
         <v>51.5</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24499,8 +24574,11 @@
       <c r="KT26" s="2" t="n">
         <v>21.88</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>27.08</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>38.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25424,8 +25502,11 @@
       <c r="KT27" s="2" t="n">
         <v>11.27</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>13.54</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>18.21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26349,8 +26430,11 @@
       <c r="KT28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27274,8 +27358,11 @@
       <c r="KT29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28199,8 +28286,11 @@
       <c r="KT30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -29124,8 +29214,11 @@
       <c r="KT31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -30049,8 +30142,11 @@
       <c r="KT32" s="2" t="n">
         <v>1.76</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
         <v>2.17</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -30974,8 +31070,11 @@
       <c r="KT33" s="2" t="n">
         <v>3.41</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -31899,8 +31998,11 @@
       <c r="KT34" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32824,8 +32926,11 @@
       <c r="KT35" s="2" t="n">
         <v>29.3</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -33749,7 +33854,10 @@
       <c r="KT36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KV36" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -34674,7 +34782,10 @@
       <c r="KT37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="KV37" t="n">
         <v>87</v>
       </c>
     </row>
@@ -35599,8 +35710,11 @@
       <c r="KT38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -36524,8 +36638,11 @@
       <c r="KT39" s="2" t="n">
         <v>93.3</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>107.7</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -37449,8 +37566,11 @@
       <c r="KT40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38374,8 +38494,11 @@
       <c r="KT41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -39299,7 +39422,10 @@
       <c r="KT42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40224,7 +40350,10 @@
       <c r="KT43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -41149,8 +41278,11 @@
       <c r="KT44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -42074,8 +42206,11 @@
       <c r="KT45" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -42999,8 +43134,11 @@
       <c r="KT46" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -43924,8 +44062,11 @@
       <c r="KT47" s="2" t="n">
         <v>75.8</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -44849,8 +44990,11 @@
       <c r="KT48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -45774,8 +45918,11 @@
       <c r="KT49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -46699,8 +46846,11 @@
       <c r="KT50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -47624,8 +47774,11 @@
       <c r="KT51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -48549,8 +48702,11 @@
       <c r="KT52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -49474,8 +49630,11 @@
       <c r="KT53" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -50399,8 +50558,11 @@
       <c r="KT54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -51324,8 +51486,11 @@
       <c r="KT55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -52249,7 +52414,10 @@
       <c r="KT56" s="2" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KV56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -53174,8 +53342,11 @@
       <c r="KT57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -54099,8 +54270,11 @@
       <c r="KT58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -55024,8 +55198,11 @@
       <c r="KT59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="KV59" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -55949,8 +56126,11 @@
       <c r="KT60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -56874,8 +57054,11 @@
       <c r="KT61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -57799,8 +57982,11 @@
       <c r="KT62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -58724,8 +58910,11 @@
       <c r="KT63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -59649,8 +59838,11 @@
       <c r="KT64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -60574,8 +60766,11 @@
       <c r="KT65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -61499,8 +61694,11 @@
       <c r="KT66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -62424,8 +62622,11 @@
       <c r="KT67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -63349,8 +63550,11 @@
       <c r="KT68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -64274,8 +64478,11 @@
       <c r="KT69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -65199,8 +65406,11 @@
       <c r="KT70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -66124,8 +66334,11 @@
       <c r="KT71" s="2" t="n">
         <v>23.5</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -67049,8 +67262,11 @@
       <c r="KT72" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>17.29</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>37.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -67974,8 +68190,11 @@
       <c r="KT73" s="2" t="n">
         <v>20.59</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>12.52</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -68899,8 +69118,11 @@
       <c r="KT74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -69824,8 +70046,11 @@
       <c r="KT75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -70749,8 +70974,11 @@
       <c r="KT76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -71674,8 +71902,11 @@
       <c r="KT77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -72599,8 +72830,11 @@
       <c r="KT78" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -73524,8 +73758,11 @@
       <c r="KT79" s="2" t="n">
         <v>10.5</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>2.86</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -74449,8 +74686,11 @@
       <c r="KT80" s="2" t="n">
         <v>40.5</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -75374,8 +75614,11 @@
       <c r="KT81" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -76299,8 +76542,11 @@
       <c r="KT82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -77224,8 +77470,11 @@
       <c r="KT83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -78149,8 +78398,11 @@
       <c r="KT84" s="2" t="n">
         <v>24.24</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -79074,8 +79326,11 @@
       <c r="KT85" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>112.6</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -79999,7 +80254,10 @@
       <c r="KT86" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80924,8 +81182,11 @@
       <c r="KT87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -81849,7 +82110,10 @@
       <c r="KT88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -82774,8 +83038,11 @@
       <c r="KT89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -83699,8 +83966,11 @@
       <c r="KT90" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -84624,8 +84894,11 @@
       <c r="KT91" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -85549,8 +85822,11 @@
       <c r="KT92" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="KV92" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -86474,8 +86750,11 @@
       <c r="KT93" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -87399,8 +87678,11 @@
       <c r="KT94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -88324,8 +88606,11 @@
       <c r="KT95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -89249,8 +89534,11 @@
       <c r="KT96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -90174,8 +90462,11 @@
       <c r="KT97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -91099,8 +91390,11 @@
       <c r="KT98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -92024,8 +92318,11 @@
       <c r="KT99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -92949,8 +93246,11 @@
       <c r="KT100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -93874,8 +94174,11 @@
       <c r="KT101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -94799,8 +95102,11 @@
       <c r="KT102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/AFL_ML/Data/Sydney_stats.xlsx
+++ b/AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1377,8 +1377,11 @@
       <c r="KU1" s="2" t="n">
         <v>10776</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
         <v>10783</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>10958</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2305,7 +2308,10 @@
       <c r="KU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3233,8 +3239,11 @@
       <c r="KU3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4161,8 +4170,11 @@
       <c r="KU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5089,7 +5101,10 @@
       <c r="KU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6017,8 +6032,11 @@
       <c r="KU6" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6945,8 +6963,11 @@
       <c r="KU7" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7873,8 +7894,11 @@
       <c r="KU8" s="2" t="n">
         <v>-50</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8801,8 +8825,11 @@
       <c r="KU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -9729,8 +9756,11 @@
       <c r="KU10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10657,8 +10687,11 @@
       <c r="KU11" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11585,8 +11618,11 @@
       <c r="KU12" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12513,8 +12549,11 @@
       <c r="KU13" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
         <v>346</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13441,8 +13480,11 @@
       <c r="KU14" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14369,8 +14411,11 @@
       <c r="KU15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15297,8 +15342,11 @@
       <c r="KU16" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16225,8 +16273,11 @@
       <c r="KU17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17153,8 +17204,11 @@
       <c r="KU18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18081,8 +18135,11 @@
       <c r="KU19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -19009,8 +19066,11 @@
       <c r="KU20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -19937,8 +19997,11 @@
       <c r="KU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -20865,7 +20928,10 @@
       <c r="KU22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21793,8 +21859,11 @@
       <c r="KU23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -22721,8 +22790,11 @@
       <c r="KU24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23649,8 +23721,11 @@
       <c r="KU25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24577,8 +24652,11 @@
       <c r="KU26" s="2" t="n">
         <v>27.08</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
         <v>38.44</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>20.39</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25505,8 +25583,11 @@
       <c r="KU27" s="2" t="n">
         <v>13.54</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
         <v>18.21</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>11.47</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26433,8 +26514,11 @@
       <c r="KU28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27361,8 +27445,11 @@
       <c r="KU29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28289,8 +28376,11 @@
       <c r="KU30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -29217,8 +29307,11 @@
       <c r="KU31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -30145,8 +30238,11 @@
       <c r="KU32" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -31073,8 +31169,11 @@
       <c r="KU33" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
         <v>7.44</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -32001,8 +32100,11 @@
       <c r="KU34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
         <v>28.4</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -32929,8 +33031,11 @@
       <c r="KU35" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
         <v>13.4</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -33857,8 +33962,11 @@
       <c r="KU36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KW36" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -34785,8 +34893,11 @@
       <c r="KU37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -35713,8 +35824,11 @@
       <c r="KU38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -36641,8 +36755,11 @@
       <c r="KU39" s="2" t="n">
         <v>107.7</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
         <v>111.5</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -37569,8 +37686,11 @@
       <c r="KU40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38497,8 +38617,11 @@
       <c r="KU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -39425,7 +39548,10 @@
       <c r="KU42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40353,8 +40479,11 @@
       <c r="KU43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -41281,8 +41410,11 @@
       <c r="KU44" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -42209,8 +42341,11 @@
       <c r="KU45" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -43137,8 +43272,11 @@
       <c r="KU46" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -44065,7 +44203,10 @@
       <c r="KU47" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="KW47" t="n">
         <v>71.7</v>
       </c>
     </row>
@@ -44993,8 +45134,11 @@
       <c r="KU48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -45921,8 +46065,11 @@
       <c r="KU49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -46849,8 +46996,11 @@
       <c r="KU50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -47777,8 +47927,11 @@
       <c r="KU51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KW51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -48705,8 +48858,11 @@
       <c r="KU52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -49633,8 +49789,11 @@
       <c r="KU53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -50561,8 +50720,11 @@
       <c r="KU54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -51489,8 +51651,11 @@
       <c r="KU55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -52417,7 +52582,10 @@
       <c r="KU56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KW56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -53345,8 +53513,11 @@
       <c r="KU57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -54273,8 +54444,11 @@
       <c r="KU58" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -55201,8 +55375,11 @@
       <c r="KU59" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -56129,8 +56306,11 @@
       <c r="KU60" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -57057,8 +57237,11 @@
       <c r="KU61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -57985,8 +58168,11 @@
       <c r="KU62" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -58913,8 +59099,11 @@
       <c r="KU63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -59841,8 +60030,11 @@
       <c r="KU64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -60769,8 +60961,11 @@
       <c r="KU65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -61697,8 +61892,11 @@
       <c r="KU66" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -62625,8 +62823,11 @@
       <c r="KU67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -63553,8 +63754,11 @@
       <c r="KU68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -64481,8 +64685,11 @@
       <c r="KU69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KW69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -65409,8 +65616,11 @@
       <c r="KU70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -66337,8 +66547,11 @@
       <c r="KU71" s="2" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -67265,8 +67478,11 @@
       <c r="KU72" s="2" t="n">
         <v>17.29</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
         <v>37.33</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -68193,8 +68409,11 @@
       <c r="KU73" s="2" t="n">
         <v>12.52</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>16.57</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -69121,8 +69340,11 @@
       <c r="KU74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -70049,8 +70271,11 @@
       <c r="KU75" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -70977,8 +71202,11 @@
       <c r="KU76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -71905,8 +72133,11 @@
       <c r="KU77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -72833,8 +73064,11 @@
       <c r="KU78" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -73761,8 +73995,11 @@
       <c r="KU79" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -74689,8 +74926,11 @@
       <c r="KU80" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
         <v>42.2</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -75617,8 +75857,11 @@
       <c r="KU81" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -76545,8 +76788,11 @@
       <c r="KU82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KW82" t="n">
+        <v>186.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -77473,8 +77719,11 @@
       <c r="KU83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -78401,8 +78650,11 @@
       <c r="KU84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -79329,8 +79581,11 @@
       <c r="KU85" s="2" t="n">
         <v>112.6</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>106.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -80257,8 +80512,11 @@
       <c r="KU86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -81185,8 +81443,11 @@
       <c r="KU87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -82113,8 +82374,11 @@
       <c r="KU88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -83041,8 +83305,11 @@
       <c r="KU89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -83969,8 +84236,11 @@
       <c r="KU90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -84897,8 +85167,11 @@
       <c r="KU91" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -85825,8 +86098,11 @@
       <c r="KU92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -86753,8 +87029,11 @@
       <c r="KU93" s="2" t="n">
         <v>75.5</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -87681,8 +87960,11 @@
       <c r="KU94" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -88609,8 +88891,11 @@
       <c r="KU95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -89537,8 +89822,11 @@
       <c r="KU96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -90465,8 +90753,11 @@
       <c r="KU97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -91393,8 +91684,11 @@
       <c r="KU98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -92321,8 +92615,11 @@
       <c r="KU99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -93249,8 +93546,11 @@
       <c r="KU100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -94177,8 +94477,11 @@
       <c r="KU101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -95105,8 +95408,11 @@
       <c r="KU102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>
